--- a/02要求分析/システムテスト仕様書.xlsx
+++ b/02要求分析/システムテスト仕様書.xlsx
@@ -1,171 +1,442 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\testRepo02\02要求分析\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00594BD7-924B-4DB0-B44F-1EFCA157E0EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="15" yWindow="345" windowWidth="20475" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjuCNWH4b89Ahwal0tMRZdhlZNb3Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh4dBmzbJZ6GZZ/c9phoNQBJYNX2A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+  <si>
+    <t>テスト手順</t>
+  </si>
+  <si>
+    <t>予想結果</t>
+  </si>
+  <si>
+    <t>実際の結果</t>
+  </si>
+  <si>
+    <t>合否</t>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>実施日</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>チケット番号　　　チケット名　　　　　　  価格　　　　　　開催日　　　　在庫 
+319491         東京デ〇ズニーランド　4500円            6/1          20枚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">予約が完了しました。
+</t>
+  </si>
+  <si>
+    <t>予約番号　　　会員名　　　　　　チケット名　　　　　　予約日　予約枚数
+123456　　　山田　太郎　　東京デ〇ズニーランド　　6/1　　　　2枚</t>
+  </si>
+  <si>
+    <t>正常にキャンセルされました。</t>
+  </si>
+  <si>
+    <t>ユーザー情報が異なります。再度入力してください。</t>
+  </si>
+  <si>
+    <t>在庫数の範囲で枚数を選択してください。</t>
+  </si>
+  <si>
+    <t>操作が取り消されました。</t>
+  </si>
+  <si>
+    <t>テストレベル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>システムテスト</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タイトル：システムテスト仕様書</t>
+    <rPh sb="12" eb="15">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
   <si>
     <r>
-      <t>テスト手順</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1.チケットの予約・確認</t>
     </r>
-  </si>
-  <si>
-    <t>予想結果</t>
-  </si>
-  <si>
-    <t>実際の結果</t>
-  </si>
-  <si>
-    <t>合否</t>
-  </si>
-  <si>
-    <t>担当者</t>
-  </si>
-  <si>
-    <t>実施日</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>●チケット情報の確認
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>予約チケットの確認・キャンセル</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テスト番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>１</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>３</t>
+  </si>
+  <si>
+    <t>４</t>
+  </si>
+  <si>
+    <t>２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １.利用者は、ID(12345)とパスワード(abcdef)を入力する。
 ２．.利用者は、「1」を入力する。(チケットの確認・予約)
 ３．.利用者は、全チケットの情報(チケット番号、チケット名、価格、開催日、在庫 )を確認する。</t>
-  </si>
-  <si>
-    <t>チケット番号　　　チケット名　　　　　　  価格　　　　　　開催日　　　　在庫 
-319491         東京デ〇ズニーランド　4500円            6/1          20枚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●チケットを予約
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>全チケット情報を出力する</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １．利用者は、ID(12345)とパスワード(abcdef)を入力する。
 ２．利用者は、「１」を入力する。(チケットの確認・予約)
 ３．.利用者は、全チケットの情報を確認する。
 ４．利用者は予約したいチケットのチケット番号（319491）を入力する
 ５．.利用者は、希望枚数である「2」を入力する。
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">予約が完了しました
-</t>
-  </si>
-  <si>
-    <t>●予約したチケットを確認
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>チケットを予約する</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １．利用者は、ID(12345)とパスワード(abcdef)を入力する。
 ２．.利用者は、「２」を入力する。(予約チケットの確認・キャンセル)
 ３．利用者は、予約したチケットの情報を確認する。</t>
-  </si>
-  <si>
-    <t>予約番号　　　会員名　　　　　　チケット名　　　　　　予約日　予約枚数
-123456　　　山田　太郎　　東京デ〇ズニーランド　　6/1　　　　2枚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●予約したチケットをキャンセル
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>予約したチケットの情報を出力する(取得する)</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １．利用者は、ID(12345)とパスワード(abcdef)を入力する。
 ２．.利用者は、「２」を入力する。(予約チケットの確認・キャンセル)
 ３．.利用者は、予約したチケットの情報を確認する。
 ４．.利用者は、キャンセルしたいチケットのチケット番号（319491）を入力する。
 ５．.利用者は、「はい」を選択する。
 </t>
-  </si>
-  <si>
-    <t>予約のキャンセルをしました。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●ログイン時のユーザーIDを間違える
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>予約したチケットをキャンセル(削除する)</t>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １．利用者は、ID(2345)とパスワード(abcdef)を入力する。
 </t>
-  </si>
-  <si>
-    <t>ユーザー情報が異なります。再度入力してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●ログイン時のユーザーパスワードを間違える
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログイン時のユーザーIDを間違える</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １．利用者は、ID(12345)とパスワード(bcdef)を入力する。
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">●在庫数よりも多いチケットを予約する
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログイン時のユーザーパスワードを間違える</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １．利用者は、ID(12345)とパスワード(abcdef)を入力する。
 ２．利用者は、「１」を入力する。(チケットの確認・予約)
 ３．.利用者は、希望枚数である50枚を入力する。
 </t>
-  </si>
-  <si>
-    <t>在庫数の範囲で枚数を選択してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●予約のキャンセルをやめる
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>在庫数よりも多いチケットを予約する</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 １．利用者は、ID(12345)とパスワード(abcdef)を入力する。
 ２．.利用者は、「２」を入力する。(予約チケットの確認・キャンセル)
 ３．.利用者は、キャンセルしたいチケットのチケット番号（319491）を入力する。
 ４．.利用者は、「いいえ」を選択する。
 </t>
-  </si>
-  <si>
-    <t>１．チケットの予約・確認　２．予約チケットの確認・キャンセル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●使用工程の途中でメニューに戻る
-１．利用者は、ID(12345)とパスワード(abcdef)を入力する。
-2..利用者は、「１」を入力する。(チケットの確認・予約)
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>予約のキャンセル(削除)をやめる</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.利用者は、ID(12345)とパスワード(abcdef)を入力する。
+2.利用者は、「１」を入力する。(チケットの確認・予約)
 3.利用者は、全チケットの情報を確認する。
-4.利用者は、「３」を入力する。(メニューに戻る)
-</t>
+4.利用者は、「３」を入力する。(メニューに戻る)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>使用工程の途中でメニューに戻る（確認予約画面から）</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.利用者は、ID(12345)とパスワード(abcdef)を入力する。
+2.利用者は、「２」を入力する。(予約チケットの確認・キャンセル)
+3.利用者は、予約したチケットの情報を確認する。
+4.利用者は、「３」を入力する。(メニューに戻る)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>使用工程の途中でメニューに戻る（予約確認キャンセル画面から）</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>５-1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Yu gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -173,70 +444,103 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
-    <border/>
+  <borders count="26">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -246,8 +550,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -257,65 +563,370 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -505,522 +1116,867 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AU1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="14" width="7.63"/>
-    <col customWidth="1" min="15" max="15" width="0.38"/>
-    <col customWidth="1" min="16" max="19" width="7.63"/>
-    <col customWidth="1" min="20" max="20" width="24.75"/>
-    <col customWidth="1" min="21" max="23" width="7.63"/>
-    <col customWidth="1" min="24" max="24" width="15.5"/>
-    <col customWidth="1" min="25" max="25" width="0.38"/>
-    <col customWidth="1" min="26" max="28" width="7.63"/>
-    <col customWidth="1" min="29" max="29" width="0.38"/>
-    <col customWidth="1" min="30" max="32" width="7.63"/>
-    <col customWidth="1" min="33" max="33" width="0.38"/>
-    <col customWidth="1" min="34" max="36" width="7.63"/>
-    <col customWidth="1" min="37" max="37" width="0.38"/>
-    <col customWidth="1" min="38" max="40" width="7.63"/>
-    <col customWidth="1" min="41" max="41" width="1.75"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="12" max="13" width="7.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.375" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="7.625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0.375" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="7.625" customWidth="1"/>
+    <col min="24" max="24" width="28" customWidth="1"/>
+    <col min="25" max="27" width="7.625" customWidth="1"/>
+    <col min="28" max="28" width="12.125" customWidth="1"/>
+    <col min="29" max="29" width="0.375" customWidth="1"/>
+    <col min="30" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="0.375" customWidth="1"/>
+    <col min="34" max="36" width="7.625" customWidth="1"/>
+    <col min="37" max="37" width="0.375" customWidth="1"/>
+    <col min="38" max="40" width="7.625" customWidth="1"/>
+    <col min="41" max="41" width="0.375" customWidth="1"/>
+    <col min="42" max="44" width="7.625" customWidth="1"/>
+    <col min="45" max="47" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1"/>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:47" ht="18.75" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+    </row>
+    <row r="2" spans="1:47" ht="18.75" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+    </row>
+    <row r="3" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+    </row>
+    <row r="4" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+    </row>
+    <row r="5" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:47" ht="18.75" customHeight="1">
+      <c r="B6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="4" t="s">
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="4" t="s">
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="5"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
     </row>
-    <row r="3" ht="75.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="7" spans="1:47" ht="69.75" customHeight="1">
+      <c r="B7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9" t="s">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+    </row>
+    <row r="8" spans="1:47" ht="117" customHeight="1">
+      <c r="B8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="12"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
     </row>
-    <row r="4" ht="87.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="9" spans="1:47" ht="66" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9" t="s">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+    </row>
+    <row r="10" spans="1:47" ht="110.25" customHeight="1">
+      <c r="B10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="12"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="11" spans="1:47" ht="63" customHeight="1">
+      <c r="B11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9" t="s">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+    </row>
+    <row r="12" spans="1:47" ht="58.5" customHeight="1">
+      <c r="B12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+    </row>
+    <row r="13" spans="1:47" ht="87" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="12"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="14" spans="1:47" ht="87.75" customHeight="1">
+      <c r="B14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="12"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="12"/>
+    <row r="15" spans="1:47" ht="95.25" customHeight="1">
+      <c r="B15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="16" spans="1:47" ht="117" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="12"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="11"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="12"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="12"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="12"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1"/>
-    <row r="13" ht="18.75" customHeight="1"/>
-    <row r="14" ht="18.75" customHeight="1"/>
-    <row r="15" ht="18.75" customHeight="1"/>
-    <row r="16" ht="18.75" customHeight="1"/>
     <row r="17" ht="18.75" customHeight="1"/>
     <row r="18" ht="18.75" customHeight="1"/>
     <row r="19" ht="18.75" customHeight="1"/>
@@ -2005,82 +2961,106 @@
     <row r="998" ht="18.75" customHeight="1"/>
     <row r="999" ht="18.75" customHeight="1"/>
     <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="1001" ht="18.75" customHeight="1"/>
+    <row r="1002" ht="18.75" customHeight="1"/>
+    <row r="1003" ht="18.75" customHeight="1"/>
+    <row r="1004" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
+  <mergeCells count="91">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="AH8:AK8"/>
     <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02要求分析/システムテスト仕様書.xlsx
+++ b/02要求分析/システムテスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\testRepo02\02要求分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\新人研修\IT研修\14ミニプロジェクト\02_SHOCK\testRepo02\02要求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00594BD7-924B-4DB0-B44F-1EFCA157E0EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FFF28-69EB-4C24-8439-5911D97BE35F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="345" windowWidth="20475" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,6 +321,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -332,6 +333,7 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -351,6 +353,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -746,7 +749,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -756,10 +761,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -782,22 +787,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,23 +895,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -833,79 +907,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1158,824 +1163,824 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
     </row>
     <row r="2" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
     </row>
     <row r="3" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
     </row>
     <row r="4" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
     </row>
     <row r="5" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:47" ht="18.75" customHeight="1">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="12" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="12" t="s">
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="12" t="s">
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="12" t="s">
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="12" t="s">
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="12" t="s">
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="14"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="28"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
     </row>
     <row r="7" spans="1:47" ht="69.75" customHeight="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="3" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="8"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="23"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
     </row>
     <row r="8" spans="1:47" ht="117" customHeight="1">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="3" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="8"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="23"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
     </row>
     <row r="9" spans="1:47" ht="66" customHeight="1">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="3" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="8"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="23"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
     </row>
     <row r="10" spans="1:47" ht="110.25" customHeight="1">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="3" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="8"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="23"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
     </row>
     <row r="11" spans="1:47" ht="63" customHeight="1">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="3" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="8"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="23"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
     </row>
     <row r="12" spans="1:47" ht="58.5" customHeight="1">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="3" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="8"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="23"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
     </row>
     <row r="13" spans="1:47" ht="87" customHeight="1">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="3" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="8"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="23"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
     </row>
     <row r="14" spans="1:47" ht="87.75" customHeight="1">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="22" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="8"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="23"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
     </row>
     <row r="15" spans="1:47" ht="95.25" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="23" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="5"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="25"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
     </row>
     <row r="16" spans="1:47" ht="117" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="23" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="11"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="38"/>
     </row>
     <row r="17" ht="18.75" customHeight="1"/>
     <row r="18" ht="18.75" customHeight="1"/>
@@ -2967,16 +2972,71 @@
     <row r="1004" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -2993,71 +3053,16 @@
     <mergeCell ref="AP7:AS7"/>
     <mergeCell ref="AL7:AO7"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/02要求分析/システムテスト仕様書.xlsx
+++ b/02要求分析/システムテスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\新人研修\IT研修\14ミニプロジェクト\02_SHOCK\testRepo02\02要求分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\testRepo02\02要求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F6724-1ADE-4F37-B05D-D00D7227FE04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FE4BD-B837-4154-B366-3DFA37348EFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="315" windowWidth="19365" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>テスト手順</t>
   </si>
@@ -46,26 +46,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">予約が完了しました。
-</t>
-  </si>
-  <si>
-    <t>予約番号　　　会員名　　　　　　チケット名　　　　　　予約日　予約枚数
-123456　　　山田　太郎　　東京デ〇ズニーランド　　6/1　　　　2枚</t>
-  </si>
-  <si>
-    <t>正常にキャンセルされました。</t>
-  </si>
-  <si>
-    <t>ユーザー情報が異なります。再度入力してください。</t>
-  </si>
-  <si>
-    <t>在庫数の範囲で枚数を選択してください。</t>
-  </si>
-  <si>
-    <t>操作が取り消されました。</t>
   </si>
   <si>
     <t>テストレベル</t>
@@ -80,38 +60,6 @@
     <rPh sb="12" eb="15">
       <t>シヨウショ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1.チケットの予約・確認</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>予約チケットの確認・キャンセル</t>
-    </r>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -210,10 +158,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>在庫数よりも多いチケットを予約する</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>予約のキャンセル(削除)をやめる</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
@@ -241,20 +185,11 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>５-1</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5-2</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>チケット番号　　　チケット名　　　　　　  価格　　　　　　開催日　　　　在庫 
-        01               東京ランド　　　　　　5000 　　      2020-6-6       100</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -283,14 +218,6 @@
   <si>
     <t xml:space="preserve">
 １．利用者は、ID(12345)とパスワード(abcdef)を入力する。
-２．.利用者は、「1.チケットの確認・予約」を選択する。
-３．.利用者は、希望枚数である50枚を入力する。
-</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-１．利用者は、ID(12345)とパスワード(abcdef)を入力する。
 ２．.利用者は、「２.予約チケットの確認・キャンセル」を選択する。
 ３．.利用者は、キャンセルしたいチケットのチケット番号（319491）を入力する。
 ４．.利用者は、「いいえ」を選択する。
@@ -319,12 +246,44 @@
 ４．利用者は、「０．メニューに戻る」を選択する。</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>PowerPointのP5参照</t>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPointのP7参照
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP9参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP11参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP3参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP12参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP4参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,19 +349,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -806,10 +752,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -824,36 +770,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,65 +869,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU1004"/>
+  <dimension ref="A1:AU1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1223,108 +1169,108 @@
     </row>
     <row r="2" spans="1:47" ht="18.75" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
+      <c r="B2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
     </row>
     <row r="3" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
     </row>
     <row r="4" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1368,633 +1314,578 @@
       <c r="AS4" s="3"/>
     </row>
     <row r="5" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:47" ht="18.75" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="35" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="35" t="s">
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="35" t="s">
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="35" t="s">
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="35" t="s">
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="35" t="s">
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="37"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="30"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
     </row>
     <row r="7" spans="1:47" ht="69.75" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="25"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
     </row>
     <row r="8" spans="1:47" ht="117" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="25"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
     </row>
     <row r="9" spans="1:47" ht="66" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="25"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
     </row>
     <row r="10" spans="1:47" ht="110.25" customHeight="1">
       <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="25"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
     </row>
     <row r="11" spans="1:47" ht="63" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="25"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
     </row>
     <row r="12" spans="1:47" ht="58.5" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="25"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
     </row>
-    <row r="13" spans="1:47" ht="87" customHeight="1">
+    <row r="13" spans="1:47" ht="87.75" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="25"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
     </row>
-    <row r="14" spans="1:47" ht="87.75" customHeight="1">
+    <row r="14" spans="1:47" ht="95.25" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="27"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
     </row>
-    <row r="15" spans="1:47" ht="95.25" customHeight="1">
+    <row r="15" spans="1:47" ht="117" customHeight="1">
       <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="39"/>
     </row>
-    <row r="16" spans="1:47" ht="117" customHeight="1">
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="27"/>
-    </row>
+    <row r="16" spans="1:47" ht="18.75" customHeight="1"/>
     <row r="17" ht="18.75" customHeight="1"/>
     <row r="18" ht="18.75" customHeight="1"/>
     <row r="19" ht="18.75" customHeight="1"/>
@@ -2982,19 +2873,66 @@
     <row r="1001" ht="18.75" customHeight="1"/>
     <row r="1002" ht="18.75" customHeight="1"/>
     <row r="1003" ht="18.75" customHeight="1"/>
-    <row r="1004" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="83">
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -3011,71 +2949,15 @@
     <mergeCell ref="AP7:AS7"/>
     <mergeCell ref="AL7:AO7"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
